--- a/docs/result-sample.xlsx
+++ b/docs/result-sample.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12120" xr2:uid="{38F07B4D-D803-41EF-A89F-D3936833DD30}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12120" activeTab="1" xr2:uid="{38F07B4D-D803-41EF-A89F-D3936833DD30}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="64">
   <si>
     <t>Time</t>
   </si>
@@ -148,15 +148,6 @@
     <t>Chara</t>
   </si>
   <si>
-    <t>Ult Event</t>
-  </si>
-  <si>
-    <t>Ready</t>
-  </si>
-  <si>
-    <t>Used</t>
-  </si>
-  <si>
     <t>Elimination</t>
   </si>
   <si>
@@ -212,6 +203,21 @@
   </si>
   <si>
     <t>Mccree</t>
+  </si>
+  <si>
+    <t>Chara After Switch</t>
+  </si>
+  <si>
+    <t>Chara Switch</t>
+  </si>
+  <si>
+    <t>Reaper</t>
+  </si>
+  <si>
+    <t>Ult Ready</t>
+  </si>
+  <si>
+    <t>Ult Used</t>
   </si>
 </sst>
 </file>
@@ -565,7 +571,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A46F1CE-1EEC-4446-B561-95865181C94F}">
   <dimension ref="A1:T14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
@@ -616,10 +622,10 @@
         <v>14</v>
       </c>
       <c r="I1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K1" t="s">
         <v>11</v>
@@ -640,16 +646,16 @@
         <v>7</v>
       </c>
       <c r="Q1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="S1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="T1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -693,7 +699,7 @@
         <v>17</v>
       </c>
       <c r="R2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
@@ -751,10 +757,10 @@
         <v>36</v>
       </c>
       <c r="I4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
@@ -809,7 +815,7 @@
         <v>31</v>
       </c>
       <c r="J6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
@@ -867,7 +873,7 @@
         <v>29</v>
       </c>
       <c r="J8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
@@ -896,7 +902,7 @@
         <v>31</v>
       </c>
       <c r="I9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
@@ -925,19 +931,19 @@
         <v>32</v>
       </c>
       <c r="J10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="Q10" t="s">
         <v>17</v>
       </c>
       <c r="R10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="S10" t="s">
         <v>28</v>
       </c>
       <c r="T10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
@@ -966,19 +972,19 @@
         <v>34</v>
       </c>
       <c r="J11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="Q11" t="s">
         <v>17</v>
       </c>
       <c r="R11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="S11" t="s">
         <v>28</v>
       </c>
       <c r="T11" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
@@ -1007,19 +1013,19 @@
         <v>35</v>
       </c>
       <c r="I12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="Q12" t="s">
         <v>17</v>
       </c>
       <c r="R12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="S12" t="s">
         <v>28</v>
       </c>
       <c r="T12" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
@@ -1051,7 +1057,7 @@
         <v>24</v>
       </c>
       <c r="R13" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
@@ -1088,15 +1094,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0D9571E-6A9F-4AC5-AC56-158C7AD41CEB}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="22" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1110,10 +1122,13 @@
         <v>39</v>
       </c>
       <c r="E1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10</v>
       </c>
@@ -1127,10 +1142,10 @@
         <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10</v>
       </c>
@@ -1144,10 +1159,10 @@
         <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10</v>
       </c>
@@ -1161,46 +1176,49 @@
         <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>10.5</v>
       </c>
       <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>10.5</v>
+      </c>
+      <c r="B6" t="s">
         <v>16</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>20</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" t="s">
         <v>33</v>
       </c>
-      <c r="E5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>30</v>
-      </c>
       <c r="E6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
@@ -1212,27 +1230,27 @@
         <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>30.5</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>30.5</v>
       </c>
@@ -1246,7 +1264,24 @@
         <v>35</v>
       </c>
       <c r="E9" t="s">
-        <v>42</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>30.5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1281,22 +1316,22 @@
         <v>39</v>
       </c>
       <c r="D1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" t="s">
         <v>51</v>
-      </c>
-      <c r="G1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -1307,7 +1342,7 @@
         <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D2">
         <v>5</v>
@@ -1333,7 +1368,7 @@
         <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D3">
         <v>0</v>
